--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="765" windowWidth="19440" windowHeight="10005"/>
+    <workbookView xWindow="4800" yWindow="870" windowWidth="12645" windowHeight="10005"/>
   </bookViews>
   <sheets>
     <sheet name="ToDO" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t>20 min</t>
+  </si>
+  <si>
+    <t>HTML5 tutorials</t>
+  </si>
+  <si>
+    <t>3 uur</t>
+  </si>
+  <si>
+    <t>3uur</t>
+  </si>
+  <si>
+    <t>sql Stored procedures</t>
+  </si>
+  <si>
+    <t>3,5 uur</t>
   </si>
 </sst>
 </file>
@@ -230,7 +245,101 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="18">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -460,7 +569,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -480,6 +589,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -546,14 +656,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="10"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="9"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="0"/>
+    <tableColumn id="8" name="APP" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -849,7 +959,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,7 +1015,7 @@
         <v>41354</v>
       </c>
       <c r="E2" s="5">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>21</v>
@@ -931,8 +1041,8 @@
       <c r="D3" s="6">
         <v>41354</v>
       </c>
-      <c r="E3" s="1">
-        <v>60</v>
+      <c r="E3" s="5">
+        <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>21</v>
@@ -958,8 +1068,8 @@
       <c r="D4" s="6">
         <v>41354</v>
       </c>
-      <c r="E4" s="1">
-        <v>70</v>
+      <c r="E4" s="5">
+        <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>21</v>
@@ -985,8 +1095,8 @@
       <c r="D5" s="23">
         <v>41356</v>
       </c>
-      <c r="E5" s="1">
-        <v>70</v>
+      <c r="E5" s="5">
+        <v>1</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>21</v>
@@ -1009,8 +1119,8 @@
       <c r="D6" s="23">
         <v>41356</v>
       </c>
-      <c r="E6" s="1">
-        <v>50</v>
+      <c r="E6" s="5">
+        <v>1</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>21</v>
@@ -1032,11 +1142,27 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="23">
+        <v>41358</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
@@ -1051,11 +1177,27 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="10">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
@@ -1078,7 +1220,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
@@ -1097,7 +1239,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1374,27 +1516,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>3,5 uur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read-me </t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t>scrum aanpassen</t>
+  </si>
+  <si>
+    <t>balsamiq</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>sql</t>
   </si>
 </sst>
 </file>
@@ -245,7 +263,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="41">
     <dxf>
       <font>
         <b/>
@@ -290,6 +308,276 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -569,7 +857,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -656,14 +944,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="10"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="33"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="9"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="32"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="8"/>
+    <tableColumn id="8" name="APP" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -959,7 +1247,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -971,7 +1259,7 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1023,7 +1311,9 @@
       <c r="G2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="5" t="s">
+        <v>41</v>
+      </c>
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -1050,7 +1340,9 @@
       <c r="G3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -1128,7 +1420,9 @@
       <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I6" s="11">
         <f>COUNTIFS(G2:G38,"Not Started")</f>
         <v>0</v>
@@ -1198,7 +1492,9 @@
       <c r="G8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="I8" s="10">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
         <v>0</v>
@@ -1212,15 +1508,31 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
@@ -1231,15 +1543,31 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="E10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1516,27 +1844,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="37" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="36" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="35" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="34" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -121,9 +121,6 @@
     <t>3 uur</t>
   </si>
   <si>
-    <t>3uur</t>
-  </si>
-  <si>
     <t>sql Stored procedures</t>
   </si>
   <si>
@@ -146,6 +143,12 @@
   </si>
   <si>
     <t>sql</t>
+  </si>
+  <si>
+    <t>4uur</t>
+  </si>
+  <si>
+    <t>helpen trigger</t>
   </si>
 </sst>
 </file>
@@ -263,371 +266,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -851,7 +490,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -944,14 +583,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="33"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="32"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="31"/>
+    <tableColumn id="8" name="APP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1312,7 +951,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I2" t="s">
         <v>0</v>
@@ -1341,7 +980,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" t="s">
         <v>1</v>
@@ -1421,7 +1060,7 @@
         <v>7</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="11">
         <f>COUNTIFS(G2:G38,"Not Started")</f>
@@ -1443,7 +1082,7 @@
         <v>34</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D7" s="23">
         <v>41358</v>
@@ -1460,11 +1099,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>12</v>
@@ -1472,13 +1111,13 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D8" s="23">
         <v>41361</v>
@@ -1493,7 +1132,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="10">
         <f>COUNTIFS(G2:G38,"Fixed")</f>
@@ -1509,13 +1148,13 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" s="23">
         <v>41361</v>
@@ -1536,7 +1175,7 @@
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>4</v>
@@ -1544,13 +1183,13 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="23">
         <v>41361</v>
@@ -1567,7 +1206,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1577,12 +1216,30 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="E11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="2"/>
+      <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="23">
+        <v>41361</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1844,27 +1501,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="40" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="37" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="16">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="17">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="18">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ToDO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -149,6 +149,12 @@
   </si>
   <si>
     <t>helpen trigger</t>
+  </si>
+  <si>
+    <t>mockups aanpassen</t>
+  </si>
+  <si>
+    <t>2 uur</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,54 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -496,7 +549,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,14 +636,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="6"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="5"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="0"/>
+    <tableColumn id="8" name="APP" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -885,7 +938,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1103,7 +1156,7 @@
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>12</v>
@@ -1171,11 +1224,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.9</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>4</v>
@@ -1206,7 +1259,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1242,12 +1295,30 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="E12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="23">
+        <v>41363</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="I12" t="s">
         <v>8</v>
       </c>
@@ -1501,27 +1572,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="10" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="9" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17">
+    <cfRule type="expression" dxfId="8" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="7" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>2 uur</t>
+  </si>
+  <si>
+    <t>sql Stored procedures cursor toevoegen</t>
   </si>
 </sst>
 </file>
@@ -272,7 +275,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="17">
     <dxf>
       <font>
         <b/>
@@ -317,6 +320,41 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -549,7 +587,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,14 +674,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="6"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="9"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="5"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="8"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="4"/>
+    <tableColumn id="8" name="APP" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -938,8 +976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,7 +1194,7 @@
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>9.0909090909090912E-2</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>12</v>
@@ -1224,11 +1262,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.90909090909090906</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>4</v>
@@ -1259,7 +1297,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1324,12 +1362,30 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="23">
+        <v>41007</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="I13" t="s">
         <v>5</v>
       </c>
@@ -1572,27 +1628,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="12" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="11" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="10" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>sql Stored procedures cursor toevoegen</t>
+  </si>
+  <si>
+    <t>verwijderknop per festival toegevoegd</t>
   </si>
 </sst>
 </file>
@@ -275,7 +278,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -355,6 +358,18 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -587,7 +602,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -674,14 +689,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="9"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="10"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="8"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="9"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="7"/>
+    <tableColumn id="8" name="APP" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,7 +992,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1194,7 +1209,7 @@
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>8.3333333333333329E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>12</v>
@@ -1262,11 +1277,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.91666666666666663</v>
+        <v>0.92307692307692313</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>4</v>
@@ -1297,7 +1312,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1391,11 +1406,27 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="23">
+        <v>41008</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H14" s="2"/>
       <c r="I14" t="s">
         <v>6</v>
@@ -1628,27 +1659,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -161,6 +161,12 @@
   </si>
   <si>
     <t>verwijderknop per festival toegevoegd</t>
+  </si>
+  <si>
+    <t>algemene verwijderknop toevoegen voor festivals</t>
+  </si>
+  <si>
+    <t>6 uur</t>
   </si>
 </sst>
 </file>
@@ -278,101 +284,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="18">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -596,7 +508,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -689,14 +601,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="10"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="9"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="8"/>
+    <tableColumn id="8" name="APP" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -992,7 +904,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1205,11 +1117,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>12</v>
@@ -1281,7 +1193,7 @@
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.92307692307692313</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>4</v>
@@ -1312,7 +1224,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1436,11 +1348,27 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="A15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="23">
+        <v>41008</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
         <v>7</v>
@@ -1659,27 +1587,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="16">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="17">
+    <cfRule type="expression" dxfId="4" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="18">
+    <cfRule type="expression" dxfId="3" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="ToDO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t>6 uur</t>
+  </si>
+  <si>
+    <t>7 uur</t>
+  </si>
+  <si>
+    <t>festivals aanpassen afmaken</t>
   </si>
 </sst>
 </file>
@@ -284,7 +290,148 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -508,13 +655,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +681,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -601,14 +747,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="2"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="14"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="1"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="13"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="0"/>
+    <tableColumn id="8" name="APP" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -904,7 +1050,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,11 +1263,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>0.14285714285714285</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>12</v>
@@ -1189,11 +1335,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.8571428571428571</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>4</v>
@@ -1224,7 +1370,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1367,7 +1513,7 @@
         <v>21</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" t="s">
@@ -1378,11 +1524,27 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="23">
+        <v>41009</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1587,27 +1749,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="18" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="17">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="18">
+    <cfRule type="expression" dxfId="15" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/To Do/Wouter Peeters.xlsx
+++ b/To Do/Wouter Peeters.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="57">
   <si>
     <t>Prioriteit:</t>
   </si>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>festivals aanpassen afmaken</t>
+  </si>
+  <si>
+    <t>resultaat pagina maken</t>
+  </si>
+  <si>
+    <t>reultaatpagina samenvoegen</t>
+  </si>
+  <si>
+    <t>1uur</t>
+  </si>
+  <si>
+    <t>afwerking pagina's</t>
   </si>
 </sst>
 </file>
@@ -290,54 +302,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="18">
     <dxf>
       <font>
         <b/>
@@ -655,13 +620,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -681,6 +646,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -747,14 +713,14 @@
     <sortCondition descending="1" ref="G1:G200"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="Opmerking" dataDxfId="14"/>
+    <tableColumn id="1" name="Opmerking" dataDxfId="10"/>
     <tableColumn id="2" name="Geschatte tijd"/>
     <tableColumn id="5" name="Werkelijke tijd"/>
     <tableColumn id="9" name="Voltooid"/>
     <tableColumn id="6" name="Prioriteit"/>
-    <tableColumn id="3" name="Deelnemers" dataDxfId="13"/>
+    <tableColumn id="3" name="Deelnemers" dataDxfId="9"/>
     <tableColumn id="4" name="Solved"/>
-    <tableColumn id="8" name="APP" dataDxfId="12"/>
+    <tableColumn id="8" name="APP" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1049,14 +1015,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
@@ -1263,11 +1229,11 @@
       <c r="H7" s="2"/>
       <c r="I7" s="12">
         <f>COUNTIFS(G2:G38,"In Process")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" s="13">
         <f>I7/$I$10</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="16" t="s">
         <v>12</v>
@@ -1335,11 +1301,11 @@
       <c r="H9" s="2"/>
       <c r="I9" s="17">
         <f>COUNTIFS(A2:G2038,"Solved")</f>
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="J9" s="18">
         <f>I9/$I$10</f>
-        <v>0.93333333333333335</v>
+        <v>1</v>
       </c>
       <c r="K9" s="19" t="s">
         <v>4</v>
@@ -1370,7 +1336,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="20">
         <f>SUM(I6:I9)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J10" s="21">
         <v>1</v>
@@ -1399,7 +1365,7 @@
         <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>42</v>
@@ -1548,27 +1514,75 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="23">
+        <v>41011</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="23">
+        <v>41013</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="A19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="23">
+        <v>41013</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1749,27 +1763,27 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G1:G41">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"Not Started"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="23" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="24" operator="equal">
       <formula>"Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:H1048576">
-    <cfRule type="expression" dxfId="18" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$G1="Solved"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="16">
+    <cfRule type="expression" dxfId="13" priority="16">
       <formula>$G1="Not Started"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="12" priority="17">
       <formula>$G1="In Process"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$G1="Fixed"</formula>
     </cfRule>
   </conditionalFormatting>
